--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2F5029-7492-4B30-803F-907DFD0568B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59523CDF-BFDA-4A93-8BDF-363710B521C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offerte_Rechnung" sheetId="1" r:id="rId1"/>
-    <sheet name="Rechnungsbeispiele_A" sheetId="2" r:id="rId2"/>
-    <sheet name="Rechnungsbeispiel_B" sheetId="5" r:id="rId3"/>
-    <sheet name="Rechnungsbeispiel_C" sheetId="7" r:id="rId4"/>
-    <sheet name="Rechnungsbeispiel_D" sheetId="10" r:id="rId5"/>
+    <sheet name="Adressliste_A" sheetId="11" r:id="rId2"/>
+    <sheet name="Adressliste_B" sheetId="12" r:id="rId3"/>
+    <sheet name="Adressliste_C" sheetId="13" r:id="rId4"/>
+    <sheet name="Adressliste_D" sheetId="14" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="15" r:id="rId6"/>
+    <sheet name="Rechnungsbeispiele_A" sheetId="2" r:id="rId7"/>
+    <sheet name="Rechnungsbeispiel_B" sheetId="5" r:id="rId8"/>
+    <sheet name="Rechnungsbeispiel_C" sheetId="7" r:id="rId9"/>
+    <sheet name="Rechnungsbeispiel_D" sheetId="10" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adressliste_A!$B$4:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adressliste_B!$B$6:$H$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Adressliste_C!$B$5:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Adressliste_D!$B$4:$I$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>Offerte / Rechnung</t>
   </si>
@@ -100,6 +111,189 @@
   </si>
   <si>
     <t>Stückpreis</t>
+  </si>
+  <si>
+    <t>Kreisberechnungen:</t>
+  </si>
+  <si>
+    <t>Radius [cm]</t>
+  </si>
+  <si>
+    <t>Umfang [cm]</t>
+  </si>
+  <si>
+    <r>
+      <t>Fläche [cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>pi:</t>
+  </si>
+  <si>
+    <t>Pi:</t>
+  </si>
+  <si>
+    <r>
+      <t>Fläche [cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Kreisberechnungen</t>
+  </si>
+  <si>
+    <t>Anrede</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Strasse</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Strasse_Nr</t>
+  </si>
+  <si>
+    <t>Herr</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Rothlin</t>
+  </si>
+  <si>
+    <t>Peterliwiese 33</t>
+  </si>
+  <si>
+    <t>Wangen</t>
+  </si>
+  <si>
+    <t>Frau</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Collet</t>
+  </si>
+  <si>
+    <t>Lachen</t>
+  </si>
+  <si>
+    <t>Adressliste Turnverein</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Horgen</t>
+  </si>
+  <si>
+    <t>Peterliwiese</t>
+  </si>
+  <si>
+    <t>Ochsenbodenweg</t>
+  </si>
+  <si>
+    <t>HausNr</t>
+  </si>
+  <si>
+    <t>Zeughausstr.</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Gartenstr. 67a</t>
+  </si>
+  <si>
+    <t>Brunnenhof 6c</t>
+  </si>
+  <si>
+    <t>Adressliste der Feuerwehr</t>
+  </si>
+  <si>
+    <t>Brunnenhof</t>
+  </si>
+  <si>
+    <t>Gartenstr.</t>
+  </si>
+  <si>
+    <t>67a</t>
+  </si>
+  <si>
+    <t>6c</t>
+  </si>
+  <si>
+    <t>Einsatzliste Waldfest</t>
+  </si>
+  <si>
+    <t>Szrasse_Nr</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Etzelstr.</t>
+  </si>
+  <si>
+    <t>Einsatzsliste Oktoberfest</t>
   </si>
 </sst>
 </file>
@@ -112,7 +306,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +341,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +422,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -176,15 +443,188 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment textRotation="49"/>
     </xf>
@@ -192,11 +632,55 @@
       <alignment textRotation="46"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -212,6 +696,1015 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rechteck 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06969822-93FC-6B7E-EC51-B96BCF4FD636}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2736850" y="901700"/>
+          <a:ext cx="1276350" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1600"/>
+            <a:t>230V --&gt; 12V</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rechteck 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FB6A37-FE7F-72EE-BAB2-A3A89AE2C541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2406650" y="1720850"/>
+          <a:ext cx="1936750" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2400"/>
+            <a:t>12V --&gt; 230V</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rechteck 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6BA429E-E4D4-453F-61C0-87D733B641E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="4006850"/>
+          <a:ext cx="1168400" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2400"/>
+            <a:t>Charger</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rechteck 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EC96C6-531A-A769-EF83-6F0193DB5479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="5060950"/>
+          <a:ext cx="1936750" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2400"/>
+            <a:t>Bat A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rechteck 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABDC40E-7D50-D260-A71F-02D36EAF53D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="5054600"/>
+          <a:ext cx="1936750" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2400"/>
+            <a:t>Bat A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rechteck 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9EFAE2-6DEF-BC10-7953-2217C5823991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3937000" y="4006850"/>
+          <a:ext cx="1168400" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2400"/>
+            <a:t>Charger</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A12295-B923-ED94-BDAF-4A3B66FFD70B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="533400"/>
+          <a:ext cx="1854200" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="799001" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Textfeld 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8036A031-A15D-FD94-3EB2-AB2647E9EDBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="292100"/>
+          <a:ext cx="799001" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>230V GRID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40017A3-BCC6-021F-046F-B7D898E943A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="3225800"/>
+          <a:ext cx="1854200" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1184363" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Textfeld 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8940655D-F0E1-3DAC-8DB9-B10AF18A3469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="2984500"/>
+          <a:ext cx="1184363" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>12V Auto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
+            <a:t> laufend</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA414093-709C-9087-E62E-7FE954FB7D2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6045200" y="546100"/>
+          <a:ext cx="1854200" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1166538" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Textfeld 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FE44E1-8B88-B550-19D2-DA429539AF96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6508750" y="304800"/>
+          <a:ext cx="1166538" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>230V unbegrenzt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D1B076-4D86-C5AF-A1C5-1AEEDB70882B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6026150" y="1244600"/>
+          <a:ext cx="1854200" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1018292" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Textfeld 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EE9906-C572-84BA-F3A3-E57883CBE3CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6489700" y="1003300"/>
+          <a:ext cx="1018292" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>230V begrenzt</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C51BAEA-0CDD-1B01-AD94-2BDCA947C9EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6051550" y="1955800"/>
+          <a:ext cx="1854200" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="407676" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Textfeld 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD25D70-55C4-DB1A-5DC8-D075A1F11A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6515100" y="1714500"/>
+          <a:ext cx="407676" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1100"/>
+            <a:t>12V</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -561,30 +2054,837 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A3041F-3157-4894-A81F-6A57F98B91DB}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="D7:M27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>23.45</v>
+      </c>
+      <c r="G8">
+        <f>D8*F8</f>
+        <v>117.25</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="5">
+        <f>G8*(1-H8)</f>
+        <v>99.662499999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="M14" s="9"/>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="29">
+        <v>3.1415926779999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10">
+        <f>2*D18*$H$16</f>
+        <v>62.831853559999999</v>
+      </c>
+      <c r="F18" s="10">
+        <f>D18^2*$H$16</f>
+        <v>314.15926780000001</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" ref="E19:E26" si="0">2*D19*$H$16</f>
+        <v>125.66370712</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="F19:F27" si="1">D19^2*$H$16</f>
+        <v>1256.6370712</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>188.49556067999998</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="1"/>
+        <v>2827.4334101999998</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>251.32741424</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="1"/>
+        <v>5026.5482848000001</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>314.15926780000001</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="1"/>
+        <v>7853.9816949999995</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>376.99112135999997</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="1"/>
+        <v>11309.733640799999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>439.82297491999998</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
+        <v>15393.804122199999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>502.65482847999999</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="1"/>
+        <v>20106.193139200001</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>90</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="0"/>
+        <v>565.48668204000001</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>25446.900691799998</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27" s="10">
+        <f>2*D27*$H$16</f>
+        <v>628.31853560000002</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>31415.926779999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39235F12-960F-4039-859D-E79FDFCAEBA9}">
+  <dimension ref="B2:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="21.81640625" customWidth="1"/>
+    <col min="6" max="6" width="22.90625" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B2" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+    </row>
+    <row r="3" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B3" s="30"/>
+    </row>
+    <row r="4" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
+        <v>8855</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12">
+        <v>8853</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="34">
+        <v>67</v>
+      </c>
+      <c r="H7">
+        <v>8008</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G11" s="34"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:I7" xr:uid="{39235F12-960F-4039-859D-E79FDFCAEBA9}"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E9861-ACC0-4590-A269-4FC9F9293FE3}">
+  <dimension ref="B4:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.08984375" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:11" ht="21" x14ac:dyDescent="0.5">
+      <c r="B4" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="6" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="12">
+        <v>8855</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="12">
+        <v>8853</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="12">
+        <v>8008</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B6:H9" xr:uid="{486E9861-ACC0-4590-A269-4FC9F9293FE3}"/>
+  <mergeCells count="1">
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833F2A91-B126-4448-BB78-06F62BFE9F54}">
+  <dimension ref="B3:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="4" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="5.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1"/>
+    <col min="12" max="12" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="26" x14ac:dyDescent="0.6">
+      <c r="B3" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="12">
+        <v>8855</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="34"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="12">
+        <v>8853</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="12">
+        <v>8008</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B5:I8" xr:uid="{833F2A91-B126-4448-BB78-06F62BFE9F54}"/>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592461FE-4464-4360-B9D1-BBB787AC4C10}">
+  <dimension ref="B2:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="23.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+    </row>
+    <row r="4" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="12">
+        <v>8855</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="34"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="12">
+        <v>8853</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="12">
+        <v>8008</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:I7" xr:uid="{592461FE-4464-4360-B9D1-BBB787AC4C10}"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDD6-26A2-4AFB-A015-590E8D6B75C9}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C399B9B-0582-474C-85F9-E9954F62D82E}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B5:J7"/>
+  <dimension ref="B5:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="5" max="6" width="18.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>2*B7</f>
         <v>5752.1</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="56.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -593,7 +2893,7 @@
       <c r="F6">
         <v>3.65</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <f>C6*F6</f>
         <v>36.5</v>
       </c>
@@ -606,8 +2906,124 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>2876.05</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>4.2</v>
+      </c>
+      <c r="H7" s="5">
+        <f>C7*F7</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>3.1415926000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10">
+        <f>2*D16*$I$14</f>
+        <v>62.831851999999998</v>
+      </c>
+      <c r="F16" s="10">
+        <f>D16^2*$I$14</f>
+        <v>314.15926000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17" s="10">
+        <f>2*D17*I15</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" ref="F17:F21" si="0">D17^2*$I$14</f>
+        <v>1256.6370400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" ref="E18:E20" si="1">2*D18*I16</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>2827.43334</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <f>D19^2*$I$14</f>
+        <v>5026.5481600000003</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>7853.9814999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>60</v>
+      </c>
+      <c r="E21" s="10">
+        <f>2*D21*I19</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>11309.73336</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="10">
+        <f>SUM(F16:F21)</f>
+        <v>28588.492659999996</v>
       </c>
     </row>
   </sheetData>
@@ -616,62 +3032,344 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9B0DF-6993-4D81-B90B-11A645188414}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="F4:K7"/>
+  <dimension ref="C3:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="3" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F4">
+      <c r="F4" s="12">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="15">
         <v>12.45</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="15">
         <f>F4*H4</f>
         <v>249</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="16">
         <v>0.1</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="15">
         <f>I4*(1-J4)</f>
         <v>224.1</v>
       </c>
     </row>
+    <row r="5" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
     <row r="7" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F7" s="3"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>3.1415926000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C26" s="12">
+        <v>10</v>
+      </c>
+      <c r="D26" s="13">
+        <f>2*C26*H24</f>
+        <v>62.831851999999998</v>
+      </c>
+      <c r="E26" s="13">
+        <f>C26^2*$H$24</f>
+        <v>314.15926000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" ref="D27:D36" si="0">2*C27*$H$24</f>
+        <v>125.663704</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" ref="E27:E36" si="1">C27^2*$H$24</f>
+        <v>1256.6370400000001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C28" s="12">
+        <v>30</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
+        <v>188.49555599999999</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>2827.43334</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C29" s="12">
+        <v>40</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
+        <v>251.32740799999999</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>5026.5481600000003</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C30" s="12">
+        <v>50</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
+        <v>314.15926000000002</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="1"/>
+        <v>7853.9814999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C31" s="12">
+        <v>60</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
+        <v>376.99111199999999</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="1"/>
+        <v>11309.73336</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C32" s="12">
+        <v>70</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
+        <v>439.82296400000001</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="1"/>
+        <v>15393.803740000001</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C33" s="12">
+        <v>80</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
+        <v>502.65481599999998</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="1"/>
+        <v>20106.192640000001</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C34" s="12">
+        <v>90</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
+        <v>565.48666800000001</v>
+      </c>
+      <c r="E34" s="13">
+        <f>C34^2*$H$24</f>
+        <v>25446.90006</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C35" s="12">
+        <v>100</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="0"/>
+        <v>628.31852000000003</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="1"/>
+        <v>31415.925999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C36" s="12">
+        <v>110</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="0"/>
+        <v>691.15037200000006</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>38013.27046</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107AB69B-9720-4730-85C4-C1714200ED87}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="E5:J6"/>
+  <dimension ref="E5:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" customWidth="1"/>
     <col min="8" max="8" width="15.54296875" customWidth="1"/>
     <col min="10" max="10" width="13.7265625" customWidth="1"/>
   </cols>
@@ -697,89 +3395,178 @@
       </c>
     </row>
     <row r="6" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>200</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>12.45</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f>E6*G6</f>
         <v>2490</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>0.15</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f>H6*(1-I6)</f>
         <v>2116.5</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A3041F-3157-4894-A81F-6A57F98B91DB}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="D7:M14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="10">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>23.45</v>
-      </c>
-      <c r="G8">
-        <f>D8*F8</f>
-        <v>117.25</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="I8" s="6">
-        <f>G8*(1-H8)</f>
-        <v>99.662499999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="M14" s="11"/>
+    <row r="29" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <v>3.1415926700000001</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="23">
+        <v>10</v>
+      </c>
+      <c r="F31" s="24">
+        <f>2*E31*$I$29</f>
+        <v>62.8318534</v>
+      </c>
+      <c r="G31" s="25">
+        <f>E31^2*$I$29</f>
+        <v>314.159267</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E32" s="18">
+        <v>20</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" ref="F32:F40" si="0">2*E32*$I$29</f>
+        <v>125.6637068</v>
+      </c>
+      <c r="G32" s="19">
+        <f t="shared" ref="G32:G40" si="1">E32^2*$I$29</f>
+        <v>1256.637068</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E33" s="18">
+        <v>30</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="0"/>
+        <v>188.4955602</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="1"/>
+        <v>2827.433403</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E34" s="18">
+        <v>40</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="0"/>
+        <v>251.3274136</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="1"/>
+        <v>5026.548272</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E35" s="18">
+        <v>50</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="0"/>
+        <v>314.159267</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="1"/>
+        <v>7853.981675</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E36" s="18">
+        <v>60</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="0"/>
+        <v>376.9911204</v>
+      </c>
+      <c r="G36" s="19">
+        <f t="shared" si="1"/>
+        <v>11309.733612</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E37" s="18">
+        <v>70</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="0"/>
+        <v>439.8229738</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="1"/>
+        <v>15393.804083000001</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E38" s="18">
+        <v>80</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="0"/>
+        <v>502.6548272</v>
+      </c>
+      <c r="G38" s="19">
+        <f t="shared" si="1"/>
+        <v>20106.193088</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E39" s="18">
+        <v>90</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="0"/>
+        <v>565.4866806</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="1"/>
+        <v>25446.900626999999</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="20">
+        <v>100</v>
+      </c>
+      <c r="F40" s="21">
+        <f t="shared" si="0"/>
+        <v>628.318534</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="1"/>
+        <v>31415.9267</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59523CDF-BFDA-4A93-8BDF-363710B521C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D93DE-51F1-42DC-AF1E-87BA9AE85298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offerte_Rechnung" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Adressliste_B" sheetId="12" r:id="rId3"/>
     <sheet name="Adressliste_C" sheetId="13" r:id="rId4"/>
     <sheet name="Adressliste_D" sheetId="14" r:id="rId5"/>
-    <sheet name="Tabelle1" sheetId="15" r:id="rId6"/>
+    <sheet name="Bus_ChargerSchema" sheetId="15" r:id="rId6"/>
     <sheet name="Rechnungsbeispiele_A" sheetId="2" r:id="rId7"/>
     <sheet name="Rechnungsbeispiel_B" sheetId="5" r:id="rId8"/>
     <sheet name="Rechnungsbeispiel_C" sheetId="7" r:id="rId9"/>
@@ -621,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -674,13 +674,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1038,7 +1037,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="de-CH" sz="2400"/>
-            <a:t>Bat A</a:t>
+            <a:t>Bat B</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1355,14 +1354,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1379,8 +1378,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6045200" y="546100"/>
-          <a:ext cx="1854200" cy="6350"/>
+          <a:off x="7696200" y="542925"/>
+          <a:ext cx="1847850" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1414,10 +1413,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1166538" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1433,7 +1432,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6508750" y="304800"/>
+          <a:off x="8153400" y="304800"/>
           <a:ext cx="1166538" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1472,16 +1471,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1496,8 +1495,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6026150" y="1244600"/>
-          <a:ext cx="1854200" cy="6350"/>
+          <a:off x="7677150" y="1228725"/>
+          <a:ext cx="1847850" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1531,10 +1530,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1018292" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1550,7 +1549,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6489700" y="1003300"/>
+          <a:off x="8134350" y="990600"/>
           <a:ext cx="1018292" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1589,16 +1588,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1613,8 +1612,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6051550" y="1955800"/>
-          <a:ext cx="1854200" cy="6350"/>
+          <a:off x="7696200" y="1924050"/>
+          <a:ext cx="1857375" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1648,8 +1647,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -1667,7 +1666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6515100" y="1714500"/>
+          <a:off x="8162925" y="1685925"/>
           <a:ext cx="407676" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1704,6 +1703,218 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rechteck 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5436F2B4-A7BF-4D07-5E4C-780492738932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="3819525"/>
+          <a:ext cx="1933575" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2400"/>
+            <a:t>12V --&gt; 230V</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rechteck 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A67164-784A-79A8-A858-0650DDE8D1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="3914775"/>
+          <a:ext cx="1171575" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2400"/>
+            <a:t>Charger</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rechteck 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB45DF54-8E62-E140-58E6-17CDD6CA188A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="4962525"/>
+          <a:ext cx="1933575" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2400"/>
+            <a:t>Lipo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-CH" sz="2400" baseline="0"/>
+            <a:t> A</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-CH" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2296,11 +2507,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
@@ -2436,11 +2647,11 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="K4" s="31"/>
     </row>
     <row r="6" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
@@ -2568,11 +2779,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="26" x14ac:dyDescent="0.6">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="L4" s="31"/>
@@ -2697,7 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592461FE-4464-4360-B9D1-BBB787AC4C10}">
   <dimension ref="B2:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2717,11 +2928,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="4" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
@@ -2762,7 +2973,7 @@
       <c r="E5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="38" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -2847,14 +3058,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D93DE-51F1-42DC-AF1E-87BA9AE85298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEBAD66-1284-4040-AE1D-6E27A855E2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offerte_Rechnung" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <sheet name="Rechnungsbeispiel_D" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adressliste_A!$B$4:$I$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adressliste_B!$B$6:$H$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Adressliste_C!$B$5:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adressliste_A!$B$4:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adressliste_B!$B$6:$L$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Adressliste_C!$B$5:$K$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Adressliste_D!$B$4:$I$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="84">
   <si>
     <t>Offerte / Rechnung</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Einsatzliste Waldfest</t>
   </si>
   <si>
-    <t>Szrasse_Nr</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -294,6 +291,66 @@
   </si>
   <si>
     <t>Einsatzsliste Oktoberfest</t>
+  </si>
+  <si>
+    <t>Min Passwort Len:</t>
+  </si>
+  <si>
+    <t>TopGsdd</t>
+  </si>
+  <si>
+    <t>TopGdddd</t>
+  </si>
+  <si>
+    <t>TopGfghja</t>
+  </si>
+  <si>
+    <t>Op A</t>
+  </si>
+  <si>
+    <t>Op B</t>
+  </si>
+  <si>
+    <t>AND (UND)</t>
+  </si>
+  <si>
+    <t>OR (ODER)</t>
+  </si>
+  <si>
+    <t>XOR (XODER)</t>
+  </si>
+  <si>
+    <t>NOT (NICHT) OP A</t>
+  </si>
+  <si>
+    <t>PLZ_Ort</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Brief_Anrede</t>
+  </si>
+  <si>
+    <t>Sehr geehrter Herr Rothlin</t>
+  </si>
+  <si>
+    <t>Sehr geehrte Frau Collet</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>67abb</t>
+  </si>
+  <si>
+    <t>Inital</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>Sehr geehrte Frau Müller</t>
   </si>
 </sst>
 </file>
@@ -378,15 +435,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -402,8 +450,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,8 +489,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -617,11 +684,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -671,20 +762,55 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2487,59 +2613,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39235F12-960F-4039-859D-E79FDFCAEBA9}">
-  <dimension ref="B2:L11"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
     <col min="7" max="7" width="21.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="7.6328125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" customWidth="1"/>
     <col min="11" max="11" width="12.08984375" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="58" t="s">
         <v>33</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -2553,17 +2689,31 @@
         <v>37</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f>_xlfn.CONCAT(E5," ",F5)</f>
+        <v>Etzelstr. 7</v>
+      </c>
       <c r="H5" s="12">
         <v>8855</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>39</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f>_xlfn.CONCAT(H5," ",I5)</f>
+        <v>8855 Wangen</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f>_xlfn.CONCAT(LEFT(C5,1),".",LEFT(D5,1),".")</f>
+        <v>W.R.</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -2582,46 +2732,246 @@
       <c r="F6" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="str">
+        <f t="shared" ref="G6:G7" si="0">_xlfn.CONCAT(E6," ",F6)</f>
+        <v>Ochsenbodenweg 7a</v>
+      </c>
       <c r="H6" s="12">
         <v>8853</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="31"/>
+      <c r="J6" s="12" t="str">
+        <f t="shared" ref="J6:J7" si="1">_xlfn.CONCAT(H6," ",I6)</f>
+        <v>8853 Lachen</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" ref="K6:K7" si="2">_xlfn.CONCAT(LEFT(C6,1),".",LEFT(D6,1),".")</f>
+        <v>C.C.</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <v>67</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Zeughausstr. 67</v>
+      </c>
+      <c r="H7" s="12">
         <v>8008</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="12" t="s">
         <v>46</v>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>8008 Horgen</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>G.C.</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="G11" s="34"/>
     </row>
+    <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <f>LEN(E17)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F19" si="3">LEN(E18)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="3:10" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="3:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="3:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="41" t="b">
+        <f>AND(E24,F24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="41" t="b">
+        <f>OR(E24,F24)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="41" t="b">
+        <f>_xlfn.XOR(E24,F24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="42" t="b">
+        <f>NOT(E24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12" t="b">
+        <f t="shared" ref="G25:G27" si="4">AND(E25,F25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="12" t="b">
+        <f t="shared" ref="H25:H27" si="5">OR(E25,F25)</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="12" t="b">
+        <f t="shared" ref="I25:I27" si="6">_xlfn.XOR(E25,F25)</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="38" t="b">
+        <f t="shared" ref="J25:J27" si="7">NOT(E25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" hidden="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="12" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="12" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="38" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="39" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="39" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="39" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="40" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B4:I7" xr:uid="{39235F12-960F-4039-859D-E79FDFCAEBA9}"/>
+  <autoFilter ref="B4:L4" xr:uid="{39235F12-960F-4039-859D-E79FDFCAEBA9}"/>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF00B0F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E19">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>F17&gt;$I$16</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2629,55 +2979,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E9861-ACC0-4590-A269-4FC9F9293FE3}">
-  <dimension ref="B4:K9"/>
+  <dimension ref="B4:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" customWidth="1"/>
-    <col min="11" max="11" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" style="29"/>
+    <col min="7" max="7" width="19.36328125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" customWidth="1"/>
+    <col min="12" max="12" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" ht="21" x14ac:dyDescent="0.5">
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="6" spans="2:11" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="32" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="L4" s="31"/>
+    </row>
+    <row r="6" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="I6" s="58" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J6" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
         <v>35</v>
       </c>
@@ -2688,20 +3052,34 @@
         <v>37</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="12">
+        <v>62</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="12" t="str">
+        <f>_xlfn.CONCAT(E7," ",F7)</f>
+        <v>Etzelstr. 7</v>
+      </c>
+      <c r="H7" s="12">
         <v>8855</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="I7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="34"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J7" s="12" t="str">
+        <f>_xlfn.CONCAT(H7," ",I7)</f>
+        <v>8855 Wangen</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f>_xlfn.CONCAT(LEFT(C7,1),".",LEFT(D7,1),".")</f>
+        <v>W.R.</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
@@ -2712,20 +3090,34 @@
         <v>42</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="12">
+        <v>48</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="12" t="str">
+        <f t="shared" ref="G8:G9" si="0">_xlfn.CONCAT(E8," ",F8)</f>
+        <v>Ochsenbodenweg 7a</v>
+      </c>
+      <c r="H8" s="12">
         <v>8853</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="J8" s="12" t="str">
+        <f t="shared" ref="J8:J9" si="1">_xlfn.CONCAT(H8," ",I8)</f>
+        <v>8853 Lachen</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" ref="K8:K9" si="2">_xlfn.CONCAT(LEFT(C8,1),".",LEFT(D8,1),".")</f>
+        <v>C.C.</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
@@ -2736,20 +3128,35 @@
         <v>42</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="12">
+        <v>50</v>
+      </c>
+      <c r="F9" s="33">
+        <v>67</v>
+      </c>
+      <c r="G9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Zeughausstr. 67</v>
+      </c>
+      <c r="H9" s="12">
         <v>8008</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="I9" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="J9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>8008 Horgen</v>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>G.C.</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B6:H9" xr:uid="{486E9861-ACC0-4590-A269-4FC9F9293FE3}"/>
+  <autoFilter ref="B6:L6" xr:uid="{486E9861-ACC0-4590-A269-4FC9F9293FE3}"/>
   <mergeCells count="1">
     <mergeCell ref="B4:D4"/>
   </mergeCells>
@@ -2762,15 +3169,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833F2A91-B126-4448-BB78-06F62BFE9F54}">
   <dimension ref="B3:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.90625" customWidth="1"/>
     <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="4" max="7" width="14.36328125" customWidth="1"/>
+    <col min="4" max="6" width="14.36328125" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
     <col min="8" max="8" width="5.7265625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="15.453125" customWidth="1"/>
@@ -2779,11 +3187,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="26" x14ac:dyDescent="0.6">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="L4" s="31"/>
@@ -2804,14 +3212,23 @@
       <c r="F5" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>61</v>
+      <c r="G5" s="56" t="s">
+        <v>34</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="32" t="s">
         <v>33</v>
+      </c>
+      <c r="J5" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -2825,13 +3242,14 @@
         <v>37</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>38</v>
+        <v>79</v>
+      </c>
+      <c r="G6" s="61" t="str">
+        <f>_xlfn.CONCAT(E6," ",F6)</f>
+        <v>Peterliwiese 78</v>
       </c>
       <c r="H6" s="12">
         <v>8855</v>
@@ -2839,7 +3257,17 @@
       <c r="I6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="34"/>
+      <c r="J6" s="63" t="str">
+        <f>_xlfn.CONCAT(H6," ",I6)</f>
+        <v>8855 Wangen</v>
+      </c>
+      <c r="K6" s="64" t="str">
+        <f>_xlfn.CONCAT(LEFT(C6,1),".",LEFT(D6,1),".")</f>
+        <v>W.R.</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
@@ -2849,16 +3277,17 @@
         <v>41</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>53</v>
+        <v>80</v>
+      </c>
+      <c r="G7" s="61" t="str">
+        <f t="shared" ref="G7:G8" si="0">_xlfn.CONCAT(E7," ",F7)</f>
+        <v>Gartenstr. 67abb</v>
       </c>
       <c r="H7" s="12">
         <v>8853</v>
@@ -2866,7 +3295,17 @@
       <c r="I7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="31"/>
+      <c r="J7" s="63" t="str">
+        <f t="shared" ref="J7:J8" si="1">_xlfn.CONCAT(H7," ",I7)</f>
+        <v>8853 Lachen</v>
+      </c>
+      <c r="K7" s="64" t="str">
+        <f t="shared" ref="K7:K8" si="2">_xlfn.CONCAT(LEFT(C7,1),".",LEFT(D7,1),".")</f>
+        <v>C.M.</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
@@ -2884,8 +3323,9 @@
       <c r="F8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>54</v>
+      <c r="G8" s="61" t="str">
+        <f t="shared" si="0"/>
+        <v>Brunnenhof 6c</v>
       </c>
       <c r="H8" s="12">
         <v>8008</v>
@@ -2893,9 +3333,20 @@
       <c r="I8" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="J8" s="63" t="str">
+        <f t="shared" si="1"/>
+        <v>8008 Horgen</v>
+      </c>
+      <c r="K8" s="64" t="str">
+        <f t="shared" si="2"/>
+        <v>G.C.</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:I8" xr:uid="{833F2A91-B126-4448-BB78-06F62BFE9F54}"/>
+  <autoFilter ref="B5:K5" xr:uid="{833F2A91-B126-4448-BB78-06F62BFE9F54}"/>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
@@ -2928,11 +3379,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="4" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
@@ -2973,7 +3424,7 @@
       <c r="E5" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="12" t="s">
@@ -3058,7 +3509,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEBAD66-1284-4040-AE1D-6E27A855E2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4844551-863F-4F43-AAFA-A2187E533824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offerte_Rechnung" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adressliste_A!$B$4:$L$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adressliste_B!$B$6:$L$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Adressliste_C!$B$5:$K$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Adressliste_D!$B$4:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Adressliste_D!$B$4:$L$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="81">
   <si>
     <t>Offerte / Rechnung</t>
   </si>
@@ -215,9 +215,6 @@
     <t>Rothlin</t>
   </si>
   <si>
-    <t>Peterliwiese 33</t>
-  </si>
-  <si>
     <t>Wangen</t>
   </si>
   <si>
@@ -257,15 +254,6 @@
     <t>7a</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>Gartenstr. 67a</t>
-  </si>
-  <si>
-    <t>Brunnenhof 6c</t>
-  </si>
-  <si>
     <t>Adressliste der Feuerwehr</t>
   </si>
   <si>
@@ -351,6 +339,9 @@
   </si>
   <si>
     <t>Sehr geehrte Frau Müller</t>
+  </si>
+  <si>
+    <t>Briefanrede</t>
   </si>
 </sst>
 </file>
@@ -363,7 +354,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +448,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -712,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -783,21 +780,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2634,48 +2630,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="59" t="s">
+      <c r="F4" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>76</v>
+      <c r="J4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -2689,10 +2685,10 @@
         <v>37</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G5" s="12" t="str">
         <f>_xlfn.CONCAT(E5," ",F5)</f>
@@ -2702,7 +2698,7 @@
         <v>8855</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="12" t="str">
         <f>_xlfn.CONCAT(H5," ",I5)</f>
@@ -2713,24 +2709,24 @@
         <v>W.R.</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="12" t="str">
         <f t="shared" ref="G6:G7" si="0">_xlfn.CONCAT(E6," ",F6)</f>
@@ -2740,7 +2736,7 @@
         <v>8853</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="12" t="str">
         <f t="shared" ref="J6:J7" si="1">_xlfn.CONCAT(H6," ",I6)</f>
@@ -2750,22 +2746,22 @@
         <f t="shared" ref="K6:K7" si="2">_xlfn.CONCAT(LEFT(C6,1),".",LEFT(D6,1),".")</f>
         <v>C.C.</v>
       </c>
-      <c r="L6" s="60" t="s">
-        <v>78</v>
+      <c r="L6" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="33">
         <v>67</v>
@@ -2778,7 +2774,7 @@
         <v>8008</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" s="12" t="str">
         <f t="shared" si="1"/>
@@ -2788,8 +2784,8 @@
         <f t="shared" si="2"/>
         <v>G.C.</v>
       </c>
-      <c r="L7" s="60" t="s">
-        <v>78</v>
+      <c r="L7" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
@@ -2797,7 +2793,7 @@
     </row>
     <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="H16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I16">
         <v>8</v>
@@ -2808,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <f>LEN(E17)</f>
@@ -2817,7 +2813,7 @@
     </row>
     <row r="18" spans="3:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <f t="shared" ref="F18:F19" si="3">LEN(E18)</f>
@@ -2826,7 +2822,7 @@
     </row>
     <row r="19" spans="3:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
@@ -2838,22 +2834,22 @@
     <row r="22" spans="3:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="3:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E23" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="J23" s="51" t="s">
         <v>69</v>
-      </c>
-      <c r="G23" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="51" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="3:10" hidden="1" x14ac:dyDescent="0.35">
@@ -2999,46 +2995,46 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="L4" s="31"/>
     </row>
     <row r="6" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="59" t="s">
+      <c r="F6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="57" t="s">
-        <v>76</v>
+      <c r="J6" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -3052,10 +3048,10 @@
         <v>37</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G7" s="12" t="str">
         <f>_xlfn.CONCAT(E7," ",F7)</f>
@@ -3065,7 +3061,7 @@
         <v>8855</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="12" t="str">
         <f>_xlfn.CONCAT(H7," ",I7)</f>
@@ -3076,24 +3072,24 @@
         <v>W.R.</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="E8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="12" t="str">
         <f t="shared" ref="G8:G9" si="0">_xlfn.CONCAT(E8," ",F8)</f>
@@ -3103,7 +3099,7 @@
         <v>8853</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="12" t="str">
         <f t="shared" ref="J8:J9" si="1">_xlfn.CONCAT(H8," ",I8)</f>
@@ -3113,22 +3109,22 @@
         <f t="shared" ref="K8:K9" si="2">_xlfn.CONCAT(LEFT(C8,1),".",LEFT(D8,1),".")</f>
         <v>C.C.</v>
       </c>
-      <c r="L8" s="60" t="s">
-        <v>78</v>
+      <c r="L8" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" s="33">
         <v>67</v>
@@ -3141,7 +3137,7 @@
         <v>8008</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3151,8 +3147,8 @@
         <f t="shared" si="2"/>
         <v>G.C.</v>
       </c>
-      <c r="L9" s="60" t="s">
-        <v>78</v>
+      <c r="L9" s="12" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833F2A91-B126-4448-BB78-06F62BFE9F54}">
   <dimension ref="B3:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3187,11 +3183,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="26" x14ac:dyDescent="0.6">
-      <c r="B3" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="L4" s="31"/>
@@ -3210,9 +3206,9 @@
         <v>31</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="52" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="32" t="s">
@@ -3221,14 +3217,14 @@
       <c r="I5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="57" t="s">
-        <v>76</v>
+      <c r="J5" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -3242,12 +3238,12 @@
         <v>37</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="61" t="str">
+        <v>75</v>
+      </c>
+      <c r="G6" s="56" t="str">
         <f>_xlfn.CONCAT(E6," ",F6)</f>
         <v>Peterliwiese 78</v>
       </c>
@@ -3255,37 +3251,37 @@
         <v>8855</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="63" t="str">
+        <v>38</v>
+      </c>
+      <c r="J6" s="12" t="str">
         <f>_xlfn.CONCAT(H6," ",I6)</f>
         <v>8855 Wangen</v>
       </c>
-      <c r="K6" s="64" t="str">
+      <c r="K6" s="12" t="str">
         <f>_xlfn.CONCAT(LEFT(C6,1),".",LEFT(D6,1),".")</f>
         <v>W.R.</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="61" t="str">
+        <v>76</v>
+      </c>
+      <c r="G7" s="56" t="str">
         <f t="shared" ref="G7:G8" si="0">_xlfn.CONCAT(E7," ",F7)</f>
         <v>Gartenstr. 67abb</v>
       </c>
@@ -3293,37 +3289,37 @@
         <v>8853</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="63" t="str">
+        <v>42</v>
+      </c>
+      <c r="J7" s="12" t="str">
         <f t="shared" ref="J7:J8" si="1">_xlfn.CONCAT(H7," ",I7)</f>
         <v>8853 Lachen</v>
       </c>
-      <c r="K7" s="64" t="str">
+      <c r="K7" s="12" t="str">
         <f t="shared" ref="K7:K8" si="2">_xlfn.CONCAT(LEFT(C7,1),".",LEFT(D7,1),".")</f>
         <v>C.M.</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="61" t="str">
+        <v>55</v>
+      </c>
+      <c r="G8" s="56" t="str">
         <f t="shared" si="0"/>
         <v>Brunnenhof 6c</v>
       </c>
@@ -3331,18 +3327,18 @@
         <v>8008</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="63" t="str">
+        <v>45</v>
+      </c>
+      <c r="J8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>8008 Horgen</v>
       </c>
-      <c r="K8" s="64" t="str">
+      <c r="K8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>G.C.</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3359,8 +3355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592461FE-4464-4360-B9D1-BBB787AC4C10}">
   <dimension ref="B2:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3368,22 +3364,22 @@
     <col min="2" max="2" width="13.36328125" customWidth="1"/>
     <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="23.54296875" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.08984375" customWidth="1"/>
     <col min="12" max="12" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="4" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
@@ -3399,9 +3395,9 @@
         <v>31</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="52" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="32" t="s">
@@ -3409,6 +3405,15 @@
       </c>
       <c r="I4" s="32" t="s">
         <v>33</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -3422,81 +3427,108 @@
         <v>37</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="F5" s="37">
+        <v>33</v>
+      </c>
+      <c r="G5" s="12" t="str">
+        <f>_xlfn.CONCAT(E5," ",F5)</f>
+        <v>Peterliwiese 33</v>
       </c>
       <c r="H5" s="12">
         <v>8855</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="34"/>
+        <v>38</v>
+      </c>
+      <c r="J5" s="62" t="str">
+        <f>_xlfn.CONCAT(H5," ",I5)</f>
+        <v>8855 Wangen</v>
+      </c>
+      <c r="K5" s="63" t="str">
+        <f>_xlfn.CONCAT(LEFT(C5,1),".",LEFT(D5,1),".")</f>
+        <v>W.R.</v>
+      </c>
       <c r="L5" s="31"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="G6" s="12" t="str">
+        <f t="shared" ref="G6:G7" si="0">_xlfn.CONCAT(E6," ",F6)</f>
+        <v>Gartenstr. 67a</v>
       </c>
       <c r="H6" s="12">
         <v>8853</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="J6" s="62" t="str">
+        <f t="shared" ref="J6:J7" si="1">_xlfn.CONCAT(H6," ",I6)</f>
+        <v>8853 Lachen</v>
+      </c>
+      <c r="K6" s="63" t="str">
+        <f t="shared" ref="K6:K7" si="2">_xlfn.CONCAT(LEFT(C6,1),".",LEFT(D6,1),".")</f>
+        <v>C.C.</v>
       </c>
       <c r="L6" s="31"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="G7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Brunnenhof 6c</v>
       </c>
       <c r="H7" s="12">
         <v>8008</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="J7" s="62" t="str">
+        <f t="shared" si="1"/>
+        <v>8008 Horgen</v>
+      </c>
+      <c r="K7" s="63" t="str">
+        <f t="shared" si="2"/>
+        <v>G.C.</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:I7" xr:uid="{592461FE-4464-4360-B9D1-BBB787AC4C10}"/>
+  <autoFilter ref="B4:L4" xr:uid="{592461FE-4464-4360-B9D1-BBB787AC4C10}"/>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4844551-863F-4F43-AAFA-A2187E533824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE5343-2DE8-4958-B967-67B10410DF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offerte_Rechnung" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="Adressliste_B" sheetId="12" r:id="rId3"/>
     <sheet name="Adressliste_C" sheetId="13" r:id="rId4"/>
     <sheet name="Adressliste_D" sheetId="14" r:id="rId5"/>
-    <sheet name="Bus_ChargerSchema" sheetId="15" r:id="rId6"/>
-    <sheet name="Rechnungsbeispiele_A" sheetId="2" r:id="rId7"/>
-    <sheet name="Rechnungsbeispiel_B" sheetId="5" r:id="rId8"/>
-    <sheet name="Rechnungsbeispiel_C" sheetId="7" r:id="rId9"/>
-    <sheet name="Rechnungsbeispiel_D" sheetId="10" r:id="rId10"/>
+    <sheet name="Messprotokoll_D" sheetId="16" r:id="rId6"/>
+    <sheet name="Bus_ChargerSchema" sheetId="15" r:id="rId7"/>
+    <sheet name="Rechnungsbeispiele_A" sheetId="2" r:id="rId8"/>
+    <sheet name="Rechnungsbeispiel_B" sheetId="5" r:id="rId9"/>
+    <sheet name="Rechnungsbeispiel_C" sheetId="7" r:id="rId10"/>
+    <sheet name="Rechnungsbeispiel_D" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adressliste_A!$B$4:$L$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adressliste_B!$B$6:$L$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Adressliste_C!$B$5:$K$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Adressliste_C!$B$5:$L$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Adressliste_D!$B$4:$L$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="105">
   <si>
     <t>Offerte / Rechnung</t>
   </si>
@@ -320,12 +321,6 @@
     <t>Brief_Anrede</t>
   </si>
   <si>
-    <t>Sehr geehrter Herr Rothlin</t>
-  </si>
-  <si>
-    <t>Sehr geehrte Frau Collet</t>
-  </si>
-  <si>
     <t>78</t>
   </si>
   <si>
@@ -338,10 +333,88 @@
     <t>Müller</t>
   </si>
   <si>
-    <t>Sehr geehrte Frau Müller</t>
-  </si>
-  <si>
     <t>Briefanrede</t>
+  </si>
+  <si>
+    <t>Meier</t>
+  </si>
+  <si>
+    <t>Op1</t>
+  </si>
+  <si>
+    <t>Op2</t>
+  </si>
+  <si>
+    <t>UND (AND)</t>
+  </si>
+  <si>
+    <t>Oder (OR)</t>
+  </si>
+  <si>
+    <t>NICHT (NOT) Op1</t>
+  </si>
+  <si>
+    <t>Familie</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Mrs</t>
+  </si>
+  <si>
+    <t>Diethelm</t>
+  </si>
+  <si>
+    <t>Op3</t>
+  </si>
+  <si>
+    <t>ODER (OR)</t>
+  </si>
+  <si>
+    <t>XODER(Op1,Op2) (XOR)</t>
+  </si>
+  <si>
+    <t>Nicht(Op1) (NOT)</t>
+  </si>
+  <si>
+    <t>NAND</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Zeit t [s]</t>
+  </si>
+  <si>
+    <t>Weg s [m]</t>
+  </si>
+  <si>
+    <t>Messprotokoll:</t>
+  </si>
+  <si>
+    <t>Weg s = v * t</t>
+  </si>
+  <si>
+    <t>v = s/t [m/s]</t>
+  </si>
+  <si>
+    <t>y = m*x + b</t>
+  </si>
+  <si>
+    <t>m = Steigung:</t>
+  </si>
+  <si>
+    <t>b = y-Achsenabschnitt:</t>
+  </si>
+  <si>
+    <t>x:</t>
+  </si>
+  <si>
+    <t>y:</t>
+  </si>
+  <si>
+    <t>Increment:</t>
   </si>
 </sst>
 </file>
@@ -354,7 +427,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +527,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -499,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -705,11 +785,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -787,13 +893,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -819,7 +934,928 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Messprotokoll_D!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messprotokoll:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Messprotokoll_D!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36D9-4D30-9DF5-08007A640EF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508582640"/>
+        <c:axId val="508584080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508582640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508584080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508584080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508582640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B358FF6-75AD-504D-DC31-118054201A29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2388,6 +3424,224 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107AB69B-9720-4730-85C4-C1714200ED87}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="E5:J40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E6" s="6">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12.45</v>
+      </c>
+      <c r="H6" s="5">
+        <f>E6*G6</f>
+        <v>2490</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="5">
+        <f>H6*(1-I6)</f>
+        <v>2116.5</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <v>3.1415926700000001</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="23">
+        <v>10</v>
+      </c>
+      <c r="F31" s="24">
+        <f>2*E31*$I$29</f>
+        <v>62.8318534</v>
+      </c>
+      <c r="G31" s="25">
+        <f>E31^2*$I$29</f>
+        <v>314.159267</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E32" s="18">
+        <v>20</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" ref="F32:F40" si="0">2*E32*$I$29</f>
+        <v>125.6637068</v>
+      </c>
+      <c r="G32" s="19">
+        <f t="shared" ref="G32:G40" si="1">E32^2*$I$29</f>
+        <v>1256.637068</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E33" s="18">
+        <v>30</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="0"/>
+        <v>188.4955602</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="1"/>
+        <v>2827.433403</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E34" s="18">
+        <v>40</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="0"/>
+        <v>251.3274136</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="1"/>
+        <v>5026.548272</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E35" s="18">
+        <v>50</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="0"/>
+        <v>314.159267</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="1"/>
+        <v>7853.981675</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E36" s="18">
+        <v>60</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="0"/>
+        <v>376.9911204</v>
+      </c>
+      <c r="G36" s="19">
+        <f t="shared" si="1"/>
+        <v>11309.733612</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E37" s="18">
+        <v>70</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="0"/>
+        <v>439.8229738</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="1"/>
+        <v>15393.804083000001</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E38" s="18">
+        <v>80</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="0"/>
+        <v>502.6548272</v>
+      </c>
+      <c r="G38" s="19">
+        <f t="shared" si="1"/>
+        <v>20106.193088</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E39" s="18">
+        <v>90</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="0"/>
+        <v>565.4866806</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="1"/>
+        <v>25446.900626999999</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="20">
+        <v>100</v>
+      </c>
+      <c r="F40" s="21">
+        <f t="shared" si="0"/>
+        <v>628.318534</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="1"/>
+        <v>31415.9267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A3041F-3157-4894-A81F-6A57F98B91DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -2609,10 +3863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39235F12-960F-4039-859D-E79FDFCAEBA9}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2629,15 +3883,26 @@
     <col min="12" max="12" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="2" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="30"/>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="54" t="s">
@@ -2708,8 +3973,9 @@
         <f>_xlfn.CONCAT(LEFT(C5,1),".",LEFT(D5,1),".")</f>
         <v>W.R.</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>73</v>
+      <c r="L5" s="12" t="str">
+        <f>_xlfn.CONCAT("Sehr ",IF(B5="Herr","geehrter","geehrte")," ",B5," ",D5)</f>
+        <v>Sehr geehrter Herr Rothlin</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -2746,8 +4012,9 @@
         <f t="shared" ref="K6:K7" si="2">_xlfn.CONCAT(LEFT(C6,1),".",LEFT(D6,1),".")</f>
         <v>C.C.</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>74</v>
+      <c r="L6" s="12" t="str">
+        <f t="shared" ref="L6:L7" si="3">_xlfn.CONCAT("Sehr ",IF(B6="Herr","geehrter","geehrte")," ",B6," ",D6)</f>
+        <v>Sehr geehrte Frau Collet</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -2758,7 +4025,7 @@
         <v>44</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>49</v>
@@ -2782,14 +4049,19 @@
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>G.C.</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>74</v>
+        <v>G.D.</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Sehr geehrte Frau Diethelm</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="G11" s="34"/>
+      <c r="I11" t="str">
+        <f>IF(B5="Herr","Es ist ein Mann","Es ist kein Mann")</f>
+        <v>Es ist ein Mann</v>
+      </c>
     </row>
     <row r="16" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="H16" t="s">
@@ -2816,7 +4088,7 @@
         <v>62</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:F19" si="3">LEN(E18)</f>
+        <f t="shared" ref="F18:F19" si="4">LEN(E18)</f>
         <v>8</v>
       </c>
     </row>
@@ -2825,7 +4097,7 @@
         <v>63</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -2884,19 +4156,19 @@
         <v>1</v>
       </c>
       <c r="G25" s="12" t="b">
-        <f t="shared" ref="G25:G27" si="4">AND(E25,F25)</f>
+        <f t="shared" ref="G25:G27" si="5">AND(E25,F25)</f>
         <v>0</v>
       </c>
       <c r="H25" s="12" t="b">
-        <f t="shared" ref="H25:H27" si="5">OR(E25,F25)</f>
+        <f t="shared" ref="H25:H27" si="6">OR(E25,F25)</f>
         <v>1</v>
       </c>
       <c r="I25" s="12" t="b">
-        <f t="shared" ref="I25:I27" si="6">_xlfn.XOR(E25,F25)</f>
+        <f t="shared" ref="I25:I27" si="7">_xlfn.XOR(E25,F25)</f>
         <v>1</v>
       </c>
       <c r="J25" s="38" t="b">
-        <f t="shared" ref="J25:J27" si="7">NOT(E25)</f>
+        <f t="shared" ref="J25:J27" si="8">NOT(E25)</f>
         <v>1</v>
       </c>
     </row>
@@ -2908,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="G26" s="12" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H26" s="12" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="12" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="I26" s="12" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="J26" s="38" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2932,19 +4204,19 @@
         <v>1</v>
       </c>
       <c r="G27" s="39" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="39" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="H27" s="39" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="I27" s="39" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J27" s="40" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -2968,6 +4240,11 @@
       <formula>F17&gt;$I$16</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B7" xr:uid="{7D16497D-E47A-4EA0-9627-495542AA72A9}">
+      <formula1>$I$1:$I$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2975,10 +4252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486E9861-ACC0-4590-A269-4FC9F9293FE3}">
-  <dimension ref="B4:L9"/>
+  <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2992,17 +4269,31 @@
     <col min="10" max="10" width="15.453125" customWidth="1"/>
     <col min="11" max="11" width="12.08984375" customWidth="1"/>
     <col min="12" max="12" width="23.1796875" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="57" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B4" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
       <c r="L4" s="31"/>
     </row>
-    <row r="6" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="54" t="s">
         <v>28</v>
       </c>
@@ -3037,15 +4328,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>58</v>
@@ -3068,14 +4359,15 @@
         <v>8855 Wangen</v>
       </c>
       <c r="K7" s="12" t="str">
-        <f>_xlfn.CONCAT(LEFT(C7,1),".",LEFT(D7,1),".")</f>
-        <v>W.R.</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="shared" ref="K7:K9" si="0">_xlfn.CONCAT(LEFT(C7,1),".",LEFT(D7,1),".")</f>
+        <v>W.M.</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f>"Sehr " &amp; IF(B7=$I$2,"geehrter","geehrte") &amp; " " &amp; B7 &amp; " " &amp; D7</f>
+        <v>Sehr geehrte Frau Meier</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>39</v>
       </c>
@@ -3092,7 +4384,7 @@
         <v>50</v>
       </c>
       <c r="G8" s="12" t="str">
-        <f t="shared" ref="G8:G9" si="0">_xlfn.CONCAT(E8," ",F8)</f>
+        <f t="shared" ref="G8:G9" si="1">_xlfn.CONCAT(E8," ",F8)</f>
         <v>Ochsenbodenweg 7a</v>
       </c>
       <c r="H8" s="12">
@@ -3102,18 +4394,19 @@
         <v>42</v>
       </c>
       <c r="J8" s="12" t="str">
-        <f t="shared" ref="J8:J9" si="1">_xlfn.CONCAT(H8," ",I8)</f>
+        <f t="shared" ref="J8:J9" si="2">_xlfn.CONCAT(H8," ",I8)</f>
         <v>8853 Lachen</v>
       </c>
       <c r="K8" s="12" t="str">
-        <f t="shared" ref="K8:K9" si="2">_xlfn.CONCAT(LEFT(C8,1),".",LEFT(D8,1),".")</f>
+        <f t="shared" si="0"/>
         <v>C.C.</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L8" s="12" t="str">
+        <f t="shared" ref="L8:L9" si="3">_xlfn.CONCAT("Sehr ",IF(B8=$I$2,"geehrter","geehrte")," ",B8," ",D8)</f>
+        <v>Sehr geehrte Frau Collet</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>39</v>
       </c>
@@ -3130,7 +4423,7 @@
         <v>67</v>
       </c>
       <c r="G9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Zeughausstr. 67</v>
       </c>
       <c r="H9" s="12">
@@ -3140,15 +4433,101 @@
         <v>45</v>
       </c>
       <c r="J9" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8008 Horgen</v>
       </c>
       <c r="K9" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>G.C.</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>74</v>
+      <c r="L9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Sehr geehrte Frau Collet</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D15" t="str">
+        <f>D7&amp;E7&amp;"hsjhdshdj"</f>
+        <v>MeierEtzelstr.hsjhdshdj</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+      <c r="M15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="b">
+        <f>AND(J16,I16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
+        <f>OR(I16,J16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <f t="shared" ref="K17:K19" si="4">AND(J17,I17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <f t="shared" ref="L17:L19" si="5">OR(I17,J17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.35">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3156,6 +4535,11 @@
   <mergeCells count="1">
     <mergeCell ref="B4:D4"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B9" xr:uid="{BF42424C-8089-4161-98EF-44A9DFF087AE}">
+      <formula1>$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3163,10 +4547,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833F2A91-B126-4448-BB78-06F62BFE9F54}">
-  <dimension ref="B3:L8"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3182,12 +4566,25 @@
     <col min="12" max="12" width="39" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="3" spans="2:12" ht="26" x14ac:dyDescent="0.6">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="L4" s="31"/>
@@ -3221,9 +4618,9 @@
         <v>70</v>
       </c>
       <c r="K5" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3241,7 +4638,7 @@
         <v>46</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="56" t="str">
         <f>_xlfn.CONCAT(E6," ",F6)</f>
@@ -3261,8 +4658,9 @@
         <f>_xlfn.CONCAT(LEFT(C6,1),".",LEFT(D6,1),".")</f>
         <v>W.R.</v>
       </c>
-      <c r="L6" t="s">
-        <v>73</v>
+      <c r="L6" s="12" t="str">
+        <f>"Sehr "&amp;IF(B6=$J$1,"geehrter","geehrte")&amp;" "&amp;B6&amp;" "&amp;D6</f>
+        <v>Sehr geehrter Herr Rothlin</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
@@ -3273,13 +4671,13 @@
         <v>40</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="56" t="str">
         <f t="shared" ref="G7:G8" si="0">_xlfn.CONCAT(E7," ",F7)</f>
@@ -3299,8 +4697,9 @@
         <f t="shared" ref="K7:K8" si="2">_xlfn.CONCAT(LEFT(C7,1),".",LEFT(D7,1),".")</f>
         <v>C.M.</v>
       </c>
-      <c r="L7" s="31" t="s">
-        <v>79</v>
+      <c r="L7" s="12" t="str">
+        <f t="shared" ref="L7:L8" si="3">"Sehr "&amp;IF(B7=$J$1,"geehrter","geehrte")&amp;" "&amp;B7&amp;" "&amp;D7</f>
+        <v>Sehr geehrte Frau Müller</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -3337,15 +4736,317 @@
         <f t="shared" si="2"/>
         <v>G.C.</v>
       </c>
-      <c r="L8" t="s">
-        <v>74</v>
+      <c r="L8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Sehr geehrte Frau Collet</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <f>AND(C18,B18,A18)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <f>OR(C18,B18,A18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <f>_xlfn.XOR(C18,B18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <f>NOT(C18)</f>
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <f>NOT(AND(C18,B18,A18))</f>
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <f>NOT(OR(C18,B18,A18))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
+        <f t="shared" ref="D19:D25" si="4">AND(C19,B19,A19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" ref="E19:E25" si="5">OR(C19,B19,A19)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" t="b">
+        <f t="shared" ref="F19:F21" si="6">_xlfn.XOR(C19,B19)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <f t="shared" ref="I19:I25" si="7">NOT(C19)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <f t="shared" ref="J19:J25" si="8">NOT(AND(C19,B19,A19))</f>
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <f t="shared" ref="K19:K25" si="9">NOT(OR(C19,B19,A19))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="b">
+        <v>0</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F21" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:K5" xr:uid="{833F2A91-B126-4448-BB78-06F62BFE9F54}"/>
+  <protectedRanges>
+    <protectedRange sqref="B6:F8" name="Werte"/>
+  </protectedRanges>
+  <autoFilter ref="B5:L5" xr:uid="{833F2A91-B126-4448-BB78-06F62BFE9F54}"/>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR: Falsche Eingabe" error="Bitte zwischen den vorgegebenen Werten auswählen." promptTitle="Anrede" prompt="Wie soll ich sie ansprechen?" sqref="B6:B8" xr:uid="{92CFE1E2-1036-4A3B-9ACE-C032F07C315B}">
+      <formula1>$J$1:$J$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3353,10 +5054,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592461FE-4464-4360-B9D1-BBB787AC4C10}">
-  <dimension ref="B2:L7"/>
+  <dimension ref="B1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3374,12 +5075,25 @@
     <col min="12" max="12" width="36" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="2" spans="2:12" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="2:12" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="32" t="s">
@@ -3406,14 +5120,14 @@
       <c r="I4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="53" t="s">
-        <v>80</v>
+      <c r="L4" s="52" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -3442,15 +5156,18 @@
       <c r="I5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="62" t="str">
+      <c r="J5" s="12" t="str">
         <f>_xlfn.CONCAT(H5," ",I5)</f>
         <v>8855 Wangen</v>
       </c>
-      <c r="K5" s="63" t="str">
+      <c r="K5" s="12" t="str">
         <f>_xlfn.CONCAT(LEFT(C5,1),".",LEFT(D5,1),".")</f>
         <v>W.R.</v>
       </c>
-      <c r="L5" s="31"/>
+      <c r="L5" s="57" t="str">
+        <f>"Sehr " &amp; IF(B5="Herr","geehrter","geehrte") &amp; " " &amp; B5 &amp; " " &amp; D5</f>
+        <v>Sehr geehrter Herr Rothlin</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
@@ -3478,15 +5195,18 @@
       <c r="I6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="62" t="str">
+      <c r="J6" s="12" t="str">
         <f t="shared" ref="J6:J7" si="1">_xlfn.CONCAT(H6," ",I6)</f>
         <v>8853 Lachen</v>
       </c>
-      <c r="K6" s="63" t="str">
+      <c r="K6" s="12" t="str">
         <f t="shared" ref="K6:K7" si="2">_xlfn.CONCAT(LEFT(C6,1),".",LEFT(D6,1),".")</f>
         <v>C.C.</v>
       </c>
-      <c r="L6" s="31"/>
+      <c r="L6" s="57" t="str">
+        <f t="shared" ref="L6:L7" si="3">"Sehr " &amp; IF(B6="Herr","geehrter","geehrte") &amp; " " &amp; B6 &amp; " " &amp; D6</f>
+        <v>Sehr geehrte Frau Collet</v>
+      </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
@@ -3514,13 +5234,17 @@
       <c r="I7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="62" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>8008 Horgen</v>
       </c>
-      <c r="K7" s="63" t="str">
+      <c r="K7" s="12" t="str">
         <f t="shared" si="2"/>
         <v>G.C.</v>
+      </c>
+      <c r="L7" s="57" t="str">
+        <f t="shared" si="3"/>
+        <v>Sehr geehrte Frau Collet</v>
       </c>
     </row>
   </sheetData>
@@ -3529,12 +5253,227 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B7" xr:uid="{C189FA3A-2FBB-4CB6-AB8A-5BDDE6C17DA3}">
+      <formula1>$K$1:$K$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA159595-E471-4803-89D3-7C0C05C7FAAD}">
+  <dimension ref="B2:W13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="22.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="44">
+        <v>1</v>
+      </c>
+      <c r="D3" s="44">
+        <v>2</v>
+      </c>
+      <c r="E3" s="44">
+        <v>3</v>
+      </c>
+      <c r="F3" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="44">
+        <v>10</v>
+      </c>
+      <c r="D4" s="44">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E4" s="44">
+        <v>30.05</v>
+      </c>
+      <c r="F4" s="44">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" s="64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B6" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6">
+        <f>C4/C3</f>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:F6" si="0">D4/D3</f>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>10.016666666666667</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10.125</v>
+      </c>
+      <c r="H6" s="65">
+        <f>AVERAGE(C6:F6)</f>
+        <v>10.022916666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:23" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="68"/>
+      <c r="H9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="H10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="66">
+        <v>-10</v>
+      </c>
+      <c r="D12">
+        <f>C12+$C$11</f>
+        <v>-8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:Z12" si="1">D12+$C$11</f>
+        <v>-6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDD6-26A2-4AFB-A015-590E8D6B75C9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3553,7 +5492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C399B9B-0582-474C-85F9-E9954F62D82E}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -3726,7 +5665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9B0DF-6993-4D81-B90B-11A645188414}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -4047,222 +5986,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107AB69B-9720-4730-85C4-C1714200ED87}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="E5:J40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.81640625" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E6" s="6">
-        <v>200</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5">
-        <v>12.45</v>
-      </c>
-      <c r="H6" s="5">
-        <f>E6*G6</f>
-        <v>2490</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="J6" s="5">
-        <f>H6*(1-I6)</f>
-        <v>2116.5</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29">
-        <v>3.1415926700000001</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E30" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E31" s="23">
-        <v>10</v>
-      </c>
-      <c r="F31" s="24">
-        <f>2*E31*$I$29</f>
-        <v>62.8318534</v>
-      </c>
-      <c r="G31" s="25">
-        <f>E31^2*$I$29</f>
-        <v>314.159267</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E32" s="18">
-        <v>20</v>
-      </c>
-      <c r="F32" s="13">
-        <f t="shared" ref="F32:F40" si="0">2*E32*$I$29</f>
-        <v>125.6637068</v>
-      </c>
-      <c r="G32" s="19">
-        <f t="shared" ref="G32:G40" si="1">E32^2*$I$29</f>
-        <v>1256.637068</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E33" s="18">
-        <v>30</v>
-      </c>
-      <c r="F33" s="13">
-        <f t="shared" si="0"/>
-        <v>188.4955602</v>
-      </c>
-      <c r="G33" s="19">
-        <f t="shared" si="1"/>
-        <v>2827.433403</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E34" s="18">
-        <v>40</v>
-      </c>
-      <c r="F34" s="13">
-        <f t="shared" si="0"/>
-        <v>251.3274136</v>
-      </c>
-      <c r="G34" s="19">
-        <f t="shared" si="1"/>
-        <v>5026.548272</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E35" s="18">
-        <v>50</v>
-      </c>
-      <c r="F35" s="13">
-        <f t="shared" si="0"/>
-        <v>314.159267</v>
-      </c>
-      <c r="G35" s="19">
-        <f t="shared" si="1"/>
-        <v>7853.981675</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E36" s="18">
-        <v>60</v>
-      </c>
-      <c r="F36" s="13">
-        <f t="shared" si="0"/>
-        <v>376.9911204</v>
-      </c>
-      <c r="G36" s="19">
-        <f t="shared" si="1"/>
-        <v>11309.733612</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E37" s="18">
-        <v>70</v>
-      </c>
-      <c r="F37" s="13">
-        <f t="shared" si="0"/>
-        <v>439.8229738</v>
-      </c>
-      <c r="G37" s="19">
-        <f t="shared" si="1"/>
-        <v>15393.804083000001</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E38" s="18">
-        <v>80</v>
-      </c>
-      <c r="F38" s="13">
-        <f t="shared" si="0"/>
-        <v>502.6548272</v>
-      </c>
-      <c r="G38" s="19">
-        <f t="shared" si="1"/>
-        <v>20106.193088</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E39" s="18">
-        <v>90</v>
-      </c>
-      <c r="F39" s="13">
-        <f t="shared" si="0"/>
-        <v>565.4866806</v>
-      </c>
-      <c r="G39" s="19">
-        <f t="shared" si="1"/>
-        <v>25446.900626999999</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="20">
-        <v>100</v>
-      </c>
-      <c r="F40" s="21">
-        <f t="shared" si="0"/>
-        <v>628.318534</v>
-      </c>
-      <c r="G40" s="22">
-        <f t="shared" si="1"/>
-        <v>31415.9267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
+++ b/SchulungsUnterlagen/Studentenbeispiele/BZU/24_25/Informatik/Inf_01_Offertenvorlage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Landwirtschaft\Documents\SoruceCode\SchulungsUnterlagen\Studentenbeispiele\BZU\24_25\Informatik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFE5343-2DE8-4958-B967-67B10410DF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149999DE-17D4-4AD5-A64F-E1096196F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offerte_Rechnung" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Adressliste_B" sheetId="12" r:id="rId3"/>
     <sheet name="Adressliste_C" sheetId="13" r:id="rId4"/>
     <sheet name="Adressliste_D" sheetId="14" r:id="rId5"/>
-    <sheet name="Messprotokoll_D" sheetId="16" r:id="rId6"/>
-    <sheet name="Bus_ChargerSchema" sheetId="15" r:id="rId7"/>
-    <sheet name="Rechnungsbeispiele_A" sheetId="2" r:id="rId8"/>
-    <sheet name="Rechnungsbeispiel_B" sheetId="5" r:id="rId9"/>
-    <sheet name="Rechnungsbeispiel_C" sheetId="7" r:id="rId10"/>
-    <sheet name="Rechnungsbeispiel_D" sheetId="10" r:id="rId11"/>
+    <sheet name="Rechnungsbeispiele_A" sheetId="2" r:id="rId6"/>
+    <sheet name="Rechnungsbeispiel_B" sheetId="5" r:id="rId7"/>
+    <sheet name="Rechnungsbeispiel_C" sheetId="7" r:id="rId8"/>
+    <sheet name="Rechnungsbeispiel_D" sheetId="10" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adressliste_A!$B$4:$L$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Adressliste_B!$B$6:$L$6</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="94">
   <si>
     <t>Offerte / Rechnung</t>
   </si>
@@ -383,39 +384,6 @@
   <si>
     <t>NOR</t>
   </si>
-  <si>
-    <t>Zeit t [s]</t>
-  </si>
-  <si>
-    <t>Weg s [m]</t>
-  </si>
-  <si>
-    <t>Messprotokoll:</t>
-  </si>
-  <si>
-    <t>Weg s = v * t</t>
-  </si>
-  <si>
-    <t>v = s/t [m/s]</t>
-  </si>
-  <si>
-    <t>y = m*x + b</t>
-  </si>
-  <si>
-    <t>m = Steigung:</t>
-  </si>
-  <si>
-    <t>b = y-Achsenabschnitt:</t>
-  </si>
-  <si>
-    <t>x:</t>
-  </si>
-  <si>
-    <t>y:</t>
-  </si>
-  <si>
-    <t>Increment:</t>
-  </si>
 </sst>
 </file>
 
@@ -427,7 +395,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,13 +495,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -579,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -785,37 +746,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -904,11 +839,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -934,2146 +864,60 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Messprotokoll_D!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Messprotokoll:</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Messprotokoll_D!$C$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Messprotokoll_D!$C$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36D9-4D30-9DF5-08007A640EF3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="508582640"/>
-        <c:axId val="508584080"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="508582640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="508584080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="508584080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="508582640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B358FF6-75AD-504D-DC31-118054201A29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rechteck 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06969822-93FC-6B7E-EC51-B96BCF4FD636}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2736850" y="901700"/>
-          <a:ext cx="1276350" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1600"/>
-            <a:t>230V --&gt; 12V</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rechteck 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FB6A37-FE7F-72EE-BAB2-A3A89AE2C541}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2406650" y="1720850"/>
-          <a:ext cx="1936750" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="2400"/>
-            <a:t>12V --&gt; 230V</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rechteck 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6BA429E-E4D4-453F-61C0-87D733B641E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1409700" y="4006850"/>
-          <a:ext cx="1168400" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="2400"/>
-            <a:t>Charger</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rechteck 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8EC96C6-531A-A769-EF83-6F0193DB5479}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1028700" y="5060950"/>
-          <a:ext cx="1936750" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="2400"/>
-            <a:t>Bat A</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rechteck 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABDC40E-7D50-D260-A71F-02D36EAF53D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3581400" y="5054600"/>
-          <a:ext cx="1936750" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="2400"/>
-            <a:t>Bat B</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rechteck 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9EFAE2-6DEF-BC10-7953-2217C5823991}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3937000" y="4006850"/>
-          <a:ext cx="1168400" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="2400"/>
-            <a:t>Charger</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Gerade Verbindung mit Pfeil 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A12295-B923-ED94-BDAF-4A3B66FFD70B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="171450" y="533400"/>
-          <a:ext cx="1854200" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="799001" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Textfeld 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8036A031-A15D-FD94-3EB2-AB2647E9EDBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635000" y="292100"/>
-          <a:ext cx="799001" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>230V GRID</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Gerade Verbindung mit Pfeil 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40017A3-BCC6-021F-046F-B7D898E943A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="171450" y="3225800"/>
-          <a:ext cx="1854200" cy="6350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1184363" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Textfeld 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8940655D-F0E1-3DAC-8DB9-B10AF18A3469}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635000" y="2984500"/>
-          <a:ext cx="1184363" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>12V Auto</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100" baseline="0"/>
-            <a:t> laufend</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-CH" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Gerade Verbindung mit Pfeil 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA414093-709C-9087-E62E-7FE954FB7D2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7696200" y="542925"/>
-          <a:ext cx="1847850" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1166538" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Textfeld 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FE44E1-8B88-B550-19D2-DA429539AF96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="304800"/>
-          <a:ext cx="1166538" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>230V unbegrenzt</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Gerade Verbindung mit Pfeil 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D1B076-4D86-C5AF-A1C5-1AEEDB70882B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7677150" y="1228725"/>
-          <a:ext cx="1847850" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1018292" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Textfeld 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EE9906-C572-84BA-F3A3-E57883CBE3CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8134350" y="990600"/>
-          <a:ext cx="1018292" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>230V begrenzt</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Gerade Verbindung mit Pfeil 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C51BAEA-0CDD-1B01-AD94-2BDCA947C9EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7696200" y="1924050"/>
-          <a:ext cx="1857375" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="31750">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="407676" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Textfeld 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD25D70-55C4-DB1A-5DC8-D075A1F11A61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162925" y="1685925"/>
-          <a:ext cx="407676" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="de-CH" sz="1100"/>
-            <a:t>12V</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Rechteck 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5436F2B4-A7BF-4D07-5E4C-780492738932}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7743825" y="3819525"/>
-          <a:ext cx="1933575" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="2400"/>
-            <a:t>12V --&gt; 230V</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rechteck 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A67164-784A-79A8-A858-0650DDE8D1B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6429375" y="3914775"/>
-          <a:ext cx="1171575" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="2400"/>
-            <a:t>Charger</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rechteck 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB45DF54-8E62-E140-58E6-17CDD6CA188A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7077075" y="4962525"/>
-          <a:ext cx="1933575" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="de-CH" sz="2400"/>
-            <a:t>Lipo</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="de-CH" sz="2400" baseline="0"/>
-            <a:t> A</a:t>
-          </a:r>
-          <a:endParaRPr lang="de-CH" sz="2400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Messprotokoll_A"/>
+      <sheetName val="Messprotokoll_B"/>
+      <sheetName val="Messprotokoll_C"/>
+      <sheetName val="Messprotokoll_D"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Messprotokoll:</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>1</v>
+          </cell>
+          <cell r="D3">
+            <v>2</v>
+          </cell>
+          <cell r="E3">
+            <v>3</v>
+          </cell>
+          <cell r="F3">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>10</v>
+          </cell>
+          <cell r="D4">
+            <v>19.899999999999999</v>
+          </cell>
+          <cell r="E4">
+            <v>30.05</v>
+          </cell>
+          <cell r="F4">
+            <v>40.5</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3423,444 +1267,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107AB69B-9720-4730-85C4-C1714200ED87}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="E5:J40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="7" max="7" width="25.81640625" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.35">
-      <c r="E6" s="6">
-        <v>200</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5">
-        <v>12.45</v>
-      </c>
-      <c r="H6" s="5">
-        <f>E6*G6</f>
-        <v>2490</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="J6" s="5">
-        <f>H6*(1-I6)</f>
-        <v>2116.5</v>
-      </c>
-    </row>
-    <row r="29" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29">
-        <v>3.1415926700000001</v>
-      </c>
-    </row>
-    <row r="30" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E30" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E31" s="23">
-        <v>10</v>
-      </c>
-      <c r="F31" s="24">
-        <f>2*E31*$I$29</f>
-        <v>62.8318534</v>
-      </c>
-      <c r="G31" s="25">
-        <f>E31^2*$I$29</f>
-        <v>314.159267</v>
-      </c>
-    </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
-      <c r="E32" s="18">
-        <v>20</v>
-      </c>
-      <c r="F32" s="13">
-        <f t="shared" ref="F32:F40" si="0">2*E32*$I$29</f>
-        <v>125.6637068</v>
-      </c>
-      <c r="G32" s="19">
-        <f t="shared" ref="G32:G40" si="1">E32^2*$I$29</f>
-        <v>1256.637068</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E33" s="18">
-        <v>30</v>
-      </c>
-      <c r="F33" s="13">
-        <f t="shared" si="0"/>
-        <v>188.4955602</v>
-      </c>
-      <c r="G33" s="19">
-        <f t="shared" si="1"/>
-        <v>2827.433403</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E34" s="18">
-        <v>40</v>
-      </c>
-      <c r="F34" s="13">
-        <f t="shared" si="0"/>
-        <v>251.3274136</v>
-      </c>
-      <c r="G34" s="19">
-        <f t="shared" si="1"/>
-        <v>5026.548272</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E35" s="18">
-        <v>50</v>
-      </c>
-      <c r="F35" s="13">
-        <f t="shared" si="0"/>
-        <v>314.159267</v>
-      </c>
-      <c r="G35" s="19">
-        <f t="shared" si="1"/>
-        <v>7853.981675</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E36" s="18">
-        <v>60</v>
-      </c>
-      <c r="F36" s="13">
-        <f t="shared" si="0"/>
-        <v>376.9911204</v>
-      </c>
-      <c r="G36" s="19">
-        <f t="shared" si="1"/>
-        <v>11309.733612</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E37" s="18">
-        <v>70</v>
-      </c>
-      <c r="F37" s="13">
-        <f t="shared" si="0"/>
-        <v>439.8229738</v>
-      </c>
-      <c r="G37" s="19">
-        <f t="shared" si="1"/>
-        <v>15393.804083000001</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E38" s="18">
-        <v>80</v>
-      </c>
-      <c r="F38" s="13">
-        <f t="shared" si="0"/>
-        <v>502.6548272</v>
-      </c>
-      <c r="G38" s="19">
-        <f t="shared" si="1"/>
-        <v>20106.193088</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E39" s="18">
-        <v>90</v>
-      </c>
-      <c r="F39" s="13">
-        <f t="shared" si="0"/>
-        <v>565.4866806</v>
-      </c>
-      <c r="G39" s="19">
-        <f t="shared" si="1"/>
-        <v>25446.900626999999</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E40" s="20">
-        <v>100</v>
-      </c>
-      <c r="F40" s="21">
-        <f t="shared" si="0"/>
-        <v>628.318534</v>
-      </c>
-      <c r="G40" s="22">
-        <f t="shared" si="1"/>
-        <v>31415.9267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A3041F-3157-4894-A81F-6A57F98B91DB}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="D7:M27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="5" max="5" width="22.6328125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="4:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>23.45</v>
-      </c>
-      <c r="G8">
-        <f>D8*F8</f>
-        <v>117.25</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="I8" s="5">
-        <f>G8*(1-H8)</f>
-        <v>99.662499999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="M14" s="9"/>
-    </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="29">
-        <v>3.1415926779999999</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" s="10">
-        <f>2*D18*$H$16</f>
-        <v>62.831853559999999</v>
-      </c>
-      <c r="F18" s="10">
-        <f>D18^2*$H$16</f>
-        <v>314.15926780000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19" s="10">
-        <f t="shared" ref="E19:E26" si="0">2*D19*$H$16</f>
-        <v>125.66370712</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" ref="F19:F27" si="1">D19^2*$H$16</f>
-        <v>1256.6370712</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D20">
-        <v>30</v>
-      </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>188.49556067999998</v>
-      </c>
-      <c r="F20" s="10">
-        <f t="shared" si="1"/>
-        <v>2827.4334101999998</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D21">
-        <v>40</v>
-      </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>251.32741424</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="1"/>
-        <v>5026.5482848000001</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D22">
-        <v>50</v>
-      </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>314.15926780000001</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="1"/>
-        <v>7853.9816949999995</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D23">
-        <v>60</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>376.99112135999997</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="1"/>
-        <v>11309.733640799999</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D24">
-        <v>70</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>439.82297491999998</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" si="1"/>
-        <v>15393.804122199999</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D25">
-        <v>80</v>
-      </c>
-      <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>502.65482847999999</v>
-      </c>
-      <c r="F25" s="10">
-        <f t="shared" si="1"/>
-        <v>20106.193139200001</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D26">
-        <v>90</v>
-      </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>565.48668204000001</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>25446.900691799998</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D27">
-        <v>100</v>
-      </c>
-      <c r="E27" s="10">
-        <f>2*D27*$H$16</f>
-        <v>628.31853560000002</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>31415.926779999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39235F12-960F-4039-859D-E79FDFCAEBA9}">
   <dimension ref="B1:L27"/>
@@ -4549,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833F2A91-B126-4448-BB78-06F62BFE9F54}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -5264,235 +2670,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA159595-E471-4803-89D3-7C0C05C7FAAD}">
-  <dimension ref="B2:W13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="8" max="8" width="22.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B3" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="44">
-        <v>1</v>
-      </c>
-      <c r="D3" s="44">
-        <v>2</v>
-      </c>
-      <c r="E3" s="44">
-        <v>3</v>
-      </c>
-      <c r="F3" s="44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="44">
-        <v>10</v>
-      </c>
-      <c r="D4" s="44">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E4" s="44">
-        <v>30.05</v>
-      </c>
-      <c r="F4" s="44">
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B6" s="64" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6">
-        <f>C4/C3</f>
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:F6" si="0">D4/D3</f>
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>10.016666666666667</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>10.125</v>
-      </c>
-      <c r="H6" s="65">
-        <f>AVERAGE(C6:F6)</f>
-        <v>10.022916666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:23" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="68"/>
-      <c r="H9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="I9" s="66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="H10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B11" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="66">
-        <v>-10</v>
-      </c>
-      <c r="D12">
-        <f>C12+$C$11</f>
-        <v>-8</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:Z12" si="1">D12+$C$11</f>
-        <v>-6</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ADFDD6-26A2-4AFB-A015-590E8D6B75C9}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="86" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C399B9B-0582-474C-85F9-E9954F62D82E}">
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -5665,7 +2842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D9B0DF-6993-4D81-B90B-11A645188414}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -5986,4 +3163,442 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107AB69B-9720-4730-85C4-C1714200ED87}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="E5:J40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="17.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.35">
+      <c r="E6" s="6">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12.45</v>
+      </c>
+      <c r="H6" s="5">
+        <f>E6*G6</f>
+        <v>2490</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="5">
+        <f>H6*(1-I6)</f>
+        <v>2116.5</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <v>3.1415926700000001</v>
+      </c>
+    </row>
+    <row r="30" spans="5:9" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E30" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="23">
+        <v>10</v>
+      </c>
+      <c r="F31" s="24">
+        <f>2*E31*$I$29</f>
+        <v>62.8318534</v>
+      </c>
+      <c r="G31" s="25">
+        <f>E31^2*$I$29</f>
+        <v>314.159267</v>
+      </c>
+    </row>
+    <row r="32" spans="5:9" x14ac:dyDescent="0.35">
+      <c r="E32" s="18">
+        <v>20</v>
+      </c>
+      <c r="F32" s="13">
+        <f t="shared" ref="F32:F40" si="0">2*E32*$I$29</f>
+        <v>125.6637068</v>
+      </c>
+      <c r="G32" s="19">
+        <f t="shared" ref="G32:G40" si="1">E32^2*$I$29</f>
+        <v>1256.637068</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E33" s="18">
+        <v>30</v>
+      </c>
+      <c r="F33" s="13">
+        <f t="shared" si="0"/>
+        <v>188.4955602</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="1"/>
+        <v>2827.433403</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E34" s="18">
+        <v>40</v>
+      </c>
+      <c r="F34" s="13">
+        <f t="shared" si="0"/>
+        <v>251.3274136</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="1"/>
+        <v>5026.548272</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E35" s="18">
+        <v>50</v>
+      </c>
+      <c r="F35" s="13">
+        <f t="shared" si="0"/>
+        <v>314.159267</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="1"/>
+        <v>7853.981675</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E36" s="18">
+        <v>60</v>
+      </c>
+      <c r="F36" s="13">
+        <f t="shared" si="0"/>
+        <v>376.9911204</v>
+      </c>
+      <c r="G36" s="19">
+        <f t="shared" si="1"/>
+        <v>11309.733612</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E37" s="18">
+        <v>70</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" si="0"/>
+        <v>439.8229738</v>
+      </c>
+      <c r="G37" s="19">
+        <f t="shared" si="1"/>
+        <v>15393.804083000001</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E38" s="18">
+        <v>80</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="0"/>
+        <v>502.6548272</v>
+      </c>
+      <c r="G38" s="19">
+        <f t="shared" si="1"/>
+        <v>20106.193088</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
+      <c r="E39" s="18">
+        <v>90</v>
+      </c>
+      <c r="F39" s="13">
+        <f t="shared" si="0"/>
+        <v>565.4866806</v>
+      </c>
+      <c r="G39" s="19">
+        <f t="shared" si="1"/>
+        <v>25446.900626999999</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="20">
+        <v>100</v>
+      </c>
+      <c r="F40" s="21">
+        <f t="shared" si="0"/>
+        <v>628.318534</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="1"/>
+        <v>31415.9267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A3041F-3157-4894-A81F-6A57F98B91DB}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="D7:M27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>23.45</v>
+      </c>
+      <c r="G8">
+        <f>D8*F8</f>
+        <v>117.25</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="5">
+        <f>G8*(1-H8)</f>
+        <v>99.662499999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="M14" s="9"/>
+    </row>
+    <row r="16" spans="4:13" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="29">
+        <v>3.1415926779999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10">
+        <f>2*D18*$H$16</f>
+        <v>62.831853559999999</v>
+      </c>
+      <c r="F18" s="10">
+        <f>D18^2*$H$16</f>
+        <v>314.15926780000001</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" ref="E19:E26" si="0">2*D19*$H$16</f>
+        <v>125.66370712</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="F19:F27" si="1">D19^2*$H$16</f>
+        <v>1256.6370712</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="0"/>
+        <v>188.49556067999998</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="1"/>
+        <v>2827.4334101999998</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="0"/>
+        <v>251.32741424</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="1"/>
+        <v>5026.5482848000001</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="0"/>
+        <v>314.15926780000001</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="1"/>
+        <v>7853.9816949999995</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="0"/>
+        <v>376.99112135999997</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="1"/>
+        <v>11309.733640799999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>70</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="0"/>
+        <v>439.82297491999998</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
+        <v>15393.804122199999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>80</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="0"/>
+        <v>502.65482847999999</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="1"/>
+        <v>20106.193139200001</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <v>90</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="0"/>
+        <v>565.48668204000001</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
+        <v>25446.900691799998</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27" s="10">
+        <f>2*D27*$H$16</f>
+        <v>628.31853560000002</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>31415.926779999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>